--- a/template.xlsx
+++ b/template.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">АНАЛИЗ РЫНКА ЗАРАБОТНЫХ ПЛАТ</t>
   </si>
   <si>
-    <t xml:space="preserve">Специальность</t>
+    <t xml:space="preserve">Наименование нанимателя</t>
   </si>
   <si>
     <t xml:space="preserve">Бел. руб.</t>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">ФИО соискателя</t>
   </si>
   <si>
-    <t xml:space="preserve">Наименование нанимателя</t>
+    <t xml:space="preserve">Специальность</t>
   </si>
   <si>
     <t xml:space="preserve">Ссылка</t>
@@ -168,7 +168,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,10 +229,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -242,14 +238,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -272,31 +260,31 @@
   </sheetPr>
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="70.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="42.05"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="14.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="256" min="8" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="257" style="1" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="257" style="1" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="258" min="258" style="1" width="44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="259" min="259" style="1" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="260" min="260" style="1" width="26.78"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="512" min="261" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="513" min="513" style="1" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="513" min="513" style="1" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="514" min="514" style="1" width="44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="515" min="515" style="1" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="516" min="516" style="1" width="26.78"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="768" min="517" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="769" min="769" style="1" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="769" min="769" style="1" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="770" min="770" style="1" width="44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="771" min="771" style="1" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="772" min="772" style="1" width="26.78"/>
@@ -351,7 +339,9 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
@@ -360,7 +350,9 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
@@ -369,7 +361,9 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="n">
+        <v>3</v>
+      </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
@@ -378,7 +372,9 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
+      <c r="A8" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
@@ -387,7 +383,9 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
+      <c r="A9" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="10"/>
@@ -396,7 +394,9 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
+      <c r="A10" s="10" t="n">
+        <v>6</v>
+      </c>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="10"/>
@@ -405,7 +405,9 @@
       <c r="G10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
+      <c r="A11" s="10" t="n">
+        <v>7</v>
+      </c>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="10"/>
@@ -414,7 +416,9 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
+      <c r="A12" s="10" t="n">
+        <v>8</v>
+      </c>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
       <c r="D12" s="10"/>
@@ -423,7 +427,9 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
+      <c r="A13" s="10" t="n">
+        <v>9</v>
+      </c>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="10"/>
@@ -432,7 +438,9 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
+      <c r="A14" s="10" t="n">
+        <v>10</v>
+      </c>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="10"/>
@@ -441,7 +449,9 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
+      <c r="A15" s="10" t="n">
+        <v>11</v>
+      </c>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
       <c r="D15" s="10"/>
@@ -450,7 +460,9 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
+      <c r="A16" s="10" t="n">
+        <v>12</v>
+      </c>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="10"/>
@@ -459,7 +471,9 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
+      <c r="A17" s="10" t="n">
+        <v>13</v>
+      </c>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
       <c r="D17" s="10"/>
@@ -468,7 +482,9 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
+      <c r="A18" s="10" t="n">
+        <v>14</v>
+      </c>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="10"/>
@@ -477,7 +493,9 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
+      <c r="A19" s="10" t="n">
+        <v>15</v>
+      </c>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="10"/>
@@ -486,7 +504,9 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
+      <c r="A20" s="10" t="n">
+        <v>16</v>
+      </c>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="10"/>
@@ -495,7 +515,9 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
+      <c r="A21" s="10" t="n">
+        <v>17</v>
+      </c>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="10"/>
@@ -504,7 +526,9 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
+      <c r="A22" s="10" t="n">
+        <v>18</v>
+      </c>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="10"/>
@@ -513,7 +537,9 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
+      <c r="A23" s="10" t="n">
+        <v>19</v>
+      </c>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="10"/>
@@ -522,7 +548,9 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
+      <c r="A24" s="10" t="n">
+        <v>20</v>
+      </c>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="10"/>
@@ -531,7 +559,9 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
+      <c r="A25" s="10" t="n">
+        <v>21</v>
+      </c>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="10"/>
@@ -540,7 +570,9 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
+      <c r="A26" s="10" t="n">
+        <v>22</v>
+      </c>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="10"/>
@@ -549,7 +581,9 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
+      <c r="A27" s="10" t="n">
+        <v>23</v>
+      </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="10"/>
@@ -558,7 +592,9 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
+      <c r="A28" s="10" t="n">
+        <v>24</v>
+      </c>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="10"/>
@@ -567,7 +603,9 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
+      <c r="A29" s="10" t="n">
+        <v>25</v>
+      </c>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="10"/>
@@ -576,7 +614,9 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
+      <c r="A30" s="10" t="n">
+        <v>26</v>
+      </c>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="10"/>
@@ -585,7 +625,9 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
+      <c r="A31" s="10" t="n">
+        <v>27</v>
+      </c>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
       <c r="D31" s="10"/>
@@ -594,7 +636,9 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
+      <c r="A32" s="10" t="n">
+        <v>28</v>
+      </c>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
       <c r="D32" s="10"/>
@@ -603,7 +647,9 @@
       <c r="G32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
+      <c r="A33" s="10" t="n">
+        <v>29</v>
+      </c>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
       <c r="D33" s="10"/>
@@ -612,7 +658,9 @@
       <c r="G33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
+      <c r="A34" s="10" t="n">
+        <v>30</v>
+      </c>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
       <c r="D34" s="10"/>
@@ -621,7 +669,9 @@
       <c r="G34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10"/>
+      <c r="A35" s="10" t="n">
+        <v>31</v>
+      </c>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
       <c r="D35" s="10"/>
@@ -630,7 +680,9 @@
       <c r="G35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
+      <c r="A36" s="10" t="n">
+        <v>32</v>
+      </c>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
       <c r="D36" s="10"/>
@@ -639,7 +691,9 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10"/>
+      <c r="A37" s="10" t="n">
+        <v>33</v>
+      </c>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
       <c r="D37" s="10"/>
@@ -648,7 +702,9 @@
       <c r="G37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
+      <c r="A38" s="10" t="n">
+        <v>34</v>
+      </c>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="10"/>
@@ -657,7 +713,9 @@
       <c r="G38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
+      <c r="A39" s="10" t="n">
+        <v>35</v>
+      </c>
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
       <c r="D39" s="10"/>
@@ -666,640 +724,779 @@
       <c r="G39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17"/>
+      <c r="A40" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17"/>
+      <c r="A41" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17"/>
+      <c r="A42" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
+      <c r="A43" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
+      <c r="A44" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
+      <c r="A45" s="10" t="n">
+        <v>41</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="19"/>
+      <c r="A46" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="19"/>
+      <c r="A47" s="10" t="n">
+        <v>43</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="19"/>
+      <c r="A48" s="10" t="n">
+        <v>44</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="19"/>
+      <c r="A49" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="19"/>
+      <c r="A50" s="10" t="n">
+        <v>46</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
+      <c r="A51" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
+      <c r="A52" s="10" t="n">
+        <v>48</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
+      <c r="A53" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
+      <c r="A54" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
+      <c r="A55" s="10" t="n">
+        <v>51</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
+      <c r="A56" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
+      <c r="A57" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
+      <c r="A58" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
+      <c r="A59" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
+      <c r="A60" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
+      <c r="A61" s="10" t="n">
+        <v>57</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
+      <c r="A62" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
+      <c r="A63" s="10" t="n">
+        <v>59</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
+      <c r="A64" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
+      <c r="A65" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
+      <c r="A66" s="10" t="n">
+        <v>62</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
+      <c r="A67" s="10" t="n">
+        <v>63</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
+      <c r="A68" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
+      <c r="A69" s="10" t="n">
+        <v>65</v>
+      </c>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
+      <c r="A70" s="10" t="n">
+        <v>66</v>
+      </c>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
+      <c r="A71" s="10" t="n">
+        <v>67</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
+      <c r="A72" s="10" t="n">
+        <v>68</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
+      <c r="A73" s="10" t="n">
+        <v>69</v>
+      </c>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
+      <c r="A74" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
+      <c r="A75" s="10" t="n">
+        <v>71</v>
+      </c>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="20"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
+      <c r="A76" s="10" t="n">
+        <v>72</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="20"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
+      <c r="A77" s="10" t="n">
+        <v>73</v>
+      </c>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
+      <c r="A78" s="10" t="n">
+        <v>74</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
+      <c r="A79" s="10" t="n">
+        <v>75</v>
+      </c>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
+      <c r="A80" s="10" t="n">
+        <v>76</v>
+      </c>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
+      <c r="A81" s="10" t="n">
+        <v>77</v>
+      </c>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
+      <c r="A82" s="10" t="n">
+        <v>78</v>
+      </c>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="20"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
+      <c r="A83" s="10" t="n">
+        <v>79</v>
+      </c>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="20"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
+      <c r="A84" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="20"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
+      <c r="A85" s="10" t="n">
+        <v>81</v>
+      </c>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="20"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
+      <c r="A86" s="10" t="n">
+        <v>82</v>
+      </c>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
       <c r="F86" s="14"/>
       <c r="G86" s="14"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
+      <c r="A87" s="10" t="n">
+        <v>83</v>
+      </c>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
+      <c r="A88" s="10" t="n">
+        <v>84</v>
+      </c>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="20"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
+      <c r="A89" s="10" t="n">
+        <v>85</v>
+      </c>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="20"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
+      <c r="A90" s="10" t="n">
+        <v>86</v>
+      </c>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="20"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
+      <c r="A91" s="10" t="n">
+        <v>87</v>
+      </c>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="20"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
+      <c r="A92" s="10" t="n">
+        <v>88</v>
+      </c>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="20"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
+      <c r="A93" s="10" t="n">
+        <v>89</v>
+      </c>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
       <c r="F93" s="14"/>
       <c r="G93" s="14"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="20"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
+      <c r="A94" s="10" t="n">
+        <v>90</v>
+      </c>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
       <c r="F94" s="14"/>
       <c r="G94" s="14"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
+      <c r="A95" s="10" t="n">
+        <v>91</v>
+      </c>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
       <c r="F95" s="14"/>
       <c r="G95" s="14"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="20"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
+      <c r="A96" s="10" t="n">
+        <v>92</v>
+      </c>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
+      <c r="A97" s="10" t="n">
+        <v>93</v>
+      </c>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
+      <c r="A98" s="10" t="n">
+        <v>94</v>
+      </c>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
+      <c r="A99" s="10" t="n">
+        <v>95</v>
+      </c>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
       <c r="F99" s="14"/>
       <c r="G99" s="14"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="20"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
+      <c r="A100" s="10" t="n">
+        <v>96</v>
+      </c>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
       <c r="F100" s="14"/>
       <c r="G100" s="14"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="20"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
+      <c r="A101" s="10" t="n">
+        <v>97</v>
+      </c>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
       <c r="F101" s="14"/>
       <c r="G101" s="14"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="20"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
+      <c r="A102" s="10" t="n">
+        <v>98</v>
+      </c>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
       <c r="F102" s="14"/>
       <c r="G102" s="14"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="20"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
+      <c r="A103" s="10" t="n">
+        <v>99</v>
+      </c>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="20"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
+      <c r="A104" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="20"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
+      <c r="A105" s="10" t="n">
+        <v>101</v>
+      </c>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="20"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
+      <c r="A106" s="10" t="n">
+        <v>102</v>
+      </c>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="20"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
+      <c r="A107" s="10" t="n">
+        <v>103</v>
+      </c>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="20"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
+      <c r="A108" s="10" t="n">
+        <v>104</v>
+      </c>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="20"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
+      <c r="A109" s="10" t="n">
+        <v>105</v>
+      </c>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -260,19 +260,19 @@
   </sheetPr>
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="42.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="42.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="102.16"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="256" min="8" style="1" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="257" style="1" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="258" min="258" style="1" width="44"/>
